--- a/Assets/06.Tables/Excel/InventoryTab.xlsx
+++ b/Assets/06.Tables/Excel/InventoryTab.xlsx
@@ -536,7 +536,7 @@
         <v>26</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
